--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H2">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J2">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.645523528023591</v>
+        <v>0.7190439999999999</v>
       </c>
       <c r="N2">
-        <v>0.645523528023591</v>
+        <v>2.157132</v>
       </c>
       <c r="O2">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216097</v>
       </c>
       <c r="P2">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216098</v>
       </c>
       <c r="Q2">
-        <v>29.08795466602856</v>
+        <v>41.018056964748</v>
       </c>
       <c r="R2">
-        <v>29.08795466602856</v>
+        <v>369.162512682732</v>
       </c>
       <c r="S2">
-        <v>0.008128753812797861</v>
+        <v>0.009629966866558043</v>
       </c>
       <c r="T2">
-        <v>0.008128753812797861</v>
+        <v>0.009629966866558044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H3">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J3">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8171776939093</v>
+        <v>10.81722633333333</v>
       </c>
       <c r="N3">
-        <v>10.8171776939093</v>
+        <v>32.451679</v>
       </c>
       <c r="O3">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941869</v>
       </c>
       <c r="P3">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941871</v>
       </c>
       <c r="Q3">
-        <v>487.433161945586</v>
+        <v>617.071564384431</v>
       </c>
       <c r="R3">
-        <v>487.433161945586</v>
+        <v>5553.644079459879</v>
       </c>
       <c r="S3">
-        <v>0.1362152897699861</v>
+        <v>0.1448722625848476</v>
       </c>
       <c r="T3">
-        <v>0.1362152897699861</v>
+        <v>0.1448722625848476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H4">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I4">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J4">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.16121207215507</v>
+        <v>5.999487333333334</v>
       </c>
       <c r="N4">
-        <v>5.16121207215507</v>
+        <v>17.998462</v>
       </c>
       <c r="O4">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="P4">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="Q4">
-        <v>232.5695288539807</v>
+        <v>342.242356793118</v>
       </c>
       <c r="R4">
-        <v>232.5695288539807</v>
+        <v>3080.181211138062</v>
       </c>
       <c r="S4">
-        <v>0.06499255331349538</v>
+        <v>0.08034955334629684</v>
       </c>
       <c r="T4">
-        <v>0.06499255331349538</v>
+        <v>0.08034955334629686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.0610293866245</v>
+        <v>57.045267</v>
       </c>
       <c r="H5">
-        <v>45.0610293866245</v>
+        <v>171.135801</v>
       </c>
       <c r="I5">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="J5">
-        <v>0.2214194852198795</v>
+        <v>0.2489699905037019</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.959530683176244</v>
+        <v>1.054169</v>
       </c>
       <c r="N5">
-        <v>0.959530683176244</v>
+        <v>3.162507</v>
       </c>
       <c r="O5">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="P5">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="Q5">
-        <v>43.23744031197261</v>
+        <v>60.13535206812301</v>
       </c>
       <c r="R5">
-        <v>43.23744031197261</v>
+        <v>541.2181686131071</v>
       </c>
       <c r="S5">
-        <v>0.01208288832360016</v>
+        <v>0.01411820770599939</v>
       </c>
       <c r="T5">
-        <v>0.01208288832360016</v>
+        <v>0.01411820770599939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J6">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.645523528023591</v>
+        <v>0.7190439999999999</v>
       </c>
       <c r="N6">
-        <v>0.645523528023591</v>
+        <v>2.157132</v>
       </c>
       <c r="O6">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216097</v>
       </c>
       <c r="P6">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216098</v>
       </c>
       <c r="Q6">
-        <v>34.76522714960844</v>
+        <v>38.89322633867866</v>
       </c>
       <c r="R6">
-        <v>34.76522714960844</v>
+        <v>350.039037048108</v>
       </c>
       <c r="S6">
-        <v>0.009715291982189652</v>
+        <v>0.009131112214723094</v>
       </c>
       <c r="T6">
-        <v>0.009715291982189652</v>
+        <v>0.009131112214723094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J7">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8171776939093</v>
+        <v>10.81722633333333</v>
       </c>
       <c r="N7">
-        <v>10.8171776939093</v>
+        <v>32.451679</v>
       </c>
       <c r="O7">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941869</v>
       </c>
       <c r="P7">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941871</v>
       </c>
       <c r="Q7">
-        <v>582.568447656475</v>
+        <v>585.1058240372612</v>
       </c>
       <c r="R7">
-        <v>582.568447656475</v>
+        <v>5265.952416335351</v>
       </c>
       <c r="S7">
-        <v>0.1628012537998725</v>
+        <v>0.1373675428787728</v>
       </c>
       <c r="T7">
-        <v>0.1628012537998725</v>
+        <v>0.1373675428787728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H8">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I8">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J8">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.16121207215507</v>
+        <v>5.999487333333334</v>
       </c>
       <c r="N8">
-        <v>5.16121207215507</v>
+        <v>17.998462</v>
       </c>
       <c r="O8">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="P8">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="Q8">
-        <v>277.9615339585498</v>
+        <v>324.5134077627642</v>
       </c>
       <c r="R8">
-        <v>277.9615339585498</v>
+        <v>2920.620669864878</v>
       </c>
       <c r="S8">
-        <v>0.07767754401843598</v>
+        <v>0.07618725984985131</v>
       </c>
       <c r="T8">
-        <v>0.07767754401843598</v>
+        <v>0.07618725984985131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>53.8558637142935</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H9">
-        <v>53.8558637142935</v>
+        <v>162.270569</v>
       </c>
       <c r="I9">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="J9">
-        <v>0.2646352687013955</v>
+        <v>0.2360727666969011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.959530683176244</v>
+        <v>1.054169</v>
       </c>
       <c r="N9">
-        <v>0.959530683176244</v>
+        <v>3.162507</v>
       </c>
       <c r="O9">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="P9">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="Q9">
-        <v>51.67635370282273</v>
+        <v>57.02020115072034</v>
       </c>
       <c r="R9">
-        <v>51.67635370282273</v>
+        <v>513.181810356483</v>
       </c>
       <c r="S9">
-        <v>0.01444117890089738</v>
+        <v>0.01338685175355393</v>
       </c>
       <c r="T9">
-        <v>0.01444117890089738</v>
+        <v>0.01338685175355393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H10">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I10">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J10">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.645523528023591</v>
+        <v>0.7190439999999999</v>
       </c>
       <c r="N10">
-        <v>0.645523528023591</v>
+        <v>2.157132</v>
       </c>
       <c r="O10">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216097</v>
       </c>
       <c r="P10">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216098</v>
       </c>
       <c r="Q10">
-        <v>39.29943849606189</v>
+        <v>48.49572268576799</v>
       </c>
       <c r="R10">
-        <v>39.29943849606189</v>
+        <v>436.4615041719119</v>
       </c>
       <c r="S10">
-        <v>0.0109823968093833</v>
+        <v>0.01138552718465176</v>
       </c>
       <c r="T10">
-        <v>0.0109823968093833</v>
+        <v>0.01138552718465177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H11">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I11">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J11">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.8171776939093</v>
+        <v>10.81722633333333</v>
       </c>
       <c r="N11">
-        <v>10.8171776939093</v>
+        <v>32.451679</v>
       </c>
       <c r="O11">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941869</v>
       </c>
       <c r="P11">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941871</v>
       </c>
       <c r="Q11">
-        <v>658.5492101028815</v>
+        <v>729.5648228627459</v>
       </c>
       <c r="R11">
-        <v>658.5492101028815</v>
+        <v>6566.083405764713</v>
       </c>
       <c r="S11">
-        <v>0.1840344040686618</v>
+        <v>0.1712827371909057</v>
       </c>
       <c r="T11">
-        <v>0.1840344040686618</v>
+        <v>0.1712827371909057</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H12">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I12">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J12">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.16121207215507</v>
+        <v>5.999487333333334</v>
       </c>
       <c r="N12">
-        <v>5.16121207215507</v>
+        <v>17.998462</v>
       </c>
       <c r="O12">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="P12">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="Q12">
-        <v>314.2143199889341</v>
+        <v>404.633755339188</v>
       </c>
       <c r="R12">
-        <v>314.2143199889341</v>
+        <v>3641.703798052692</v>
       </c>
       <c r="S12">
-        <v>0.08780854071629579</v>
+        <v>0.09499742175394078</v>
       </c>
       <c r="T12">
-        <v>0.08780854071629579</v>
+        <v>0.0949974217539408</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.8799474999549</v>
+        <v>67.444722</v>
       </c>
       <c r="H13">
-        <v>60.8799474999549</v>
+        <v>202.334166</v>
       </c>
       <c r="I13">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="J13">
-        <v>0.2991499932235144</v>
+        <v>0.2943576685488177</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.959530683176244</v>
+        <v>1.054169</v>
       </c>
       <c r="N13">
-        <v>0.959530683176244</v>
+        <v>3.162507</v>
       </c>
       <c r="O13">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="P13">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="Q13">
-        <v>58.41617761636559</v>
+        <v>71.09813514601801</v>
       </c>
       <c r="R13">
-        <v>58.41617761636559</v>
+        <v>639.8832163141619</v>
       </c>
       <c r="S13">
-        <v>0.01632465162917353</v>
+        <v>0.01669198241931949</v>
       </c>
       <c r="T13">
-        <v>0.01632465162917353</v>
+        <v>0.0166919824193195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H14">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I14">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J14">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.645523528023591</v>
+        <v>0.7190439999999999</v>
       </c>
       <c r="N14">
-        <v>0.645523528023591</v>
+        <v>2.157132</v>
       </c>
       <c r="O14">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216097</v>
       </c>
       <c r="P14">
-        <v>0.03671200754859331</v>
+        <v>0.03867922735216098</v>
       </c>
       <c r="Q14">
-        <v>28.21772695987439</v>
+        <v>36.34400228197333</v>
       </c>
       <c r="R14">
-        <v>28.21772695987439</v>
+        <v>327.09602053776</v>
       </c>
       <c r="S14">
-        <v>0.007885564944222495</v>
+        <v>0.008532621086228072</v>
       </c>
       <c r="T14">
-        <v>0.007885564944222495</v>
+        <v>0.008532621086228074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H15">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I15">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J15">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.8171776939093</v>
+        <v>10.81722633333333</v>
       </c>
       <c r="N15">
-        <v>10.8171776939093</v>
+        <v>32.451679</v>
       </c>
       <c r="O15">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941869</v>
       </c>
       <c r="P15">
-        <v>0.615191068819974</v>
+        <v>0.5818864445941871</v>
       </c>
       <c r="Q15">
-        <v>472.8505676279879</v>
+        <v>546.7555511808578</v>
       </c>
       <c r="R15">
-        <v>472.8505676279879</v>
+        <v>4920.79996062772</v>
       </c>
       <c r="S15">
-        <v>0.1321401211814535</v>
+        <v>0.128363901939661</v>
       </c>
       <c r="T15">
-        <v>0.1321401211814535</v>
+        <v>0.128363901939661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H16">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I16">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J16">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.16121207215507</v>
+        <v>5.999487333333334</v>
       </c>
       <c r="N16">
-        <v>5.16121207215507</v>
+        <v>17.998462</v>
       </c>
       <c r="O16">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="P16">
-        <v>0.2935268016225169</v>
+        <v>0.3227278644455833</v>
       </c>
       <c r="Q16">
-        <v>225.6117193434921</v>
+        <v>303.2434473180178</v>
       </c>
       <c r="R16">
-        <v>225.6117193434921</v>
+        <v>2729.19102586216</v>
       </c>
       <c r="S16">
-        <v>0.0630481635742897</v>
+        <v>0.07119362949549435</v>
       </c>
       <c r="T16">
-        <v>0.0630481635742897</v>
+        <v>0.07119362949549436</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.7129333554565</v>
+        <v>50.54489333333333</v>
       </c>
       <c r="H17">
-        <v>43.7129333554565</v>
+        <v>151.63468</v>
       </c>
       <c r="I17">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="J17">
-        <v>0.2147952528552105</v>
+        <v>0.2205995742505793</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.959530683176244</v>
+        <v>1.054169</v>
       </c>
       <c r="N17">
-        <v>0.959530683176244</v>
+        <v>3.162507</v>
       </c>
       <c r="O17">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="P17">
-        <v>0.05457012200891583</v>
+        <v>0.05670646360806875</v>
       </c>
       <c r="Q17">
-        <v>41.9439008061988</v>
+        <v>53.28285966030668</v>
       </c>
       <c r="R17">
-        <v>41.9439008061988</v>
+        <v>479.54573694276</v>
       </c>
       <c r="S17">
-        <v>0.01172140315524476</v>
+        <v>0.01250942172919594</v>
       </c>
       <c r="T17">
-        <v>0.01172140315524476</v>
+        <v>0.01250942172919594</v>
       </c>
     </row>
   </sheetData>
